--- a/CloudMigration/SparkNLP/entities_patterns.xlsx
+++ b/CloudMigration/SparkNLP/entities_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajay/Documents/Code/EXL/Projects/CloudMigration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F480A27B-5360-8640-B42F-E19247560FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DAABA2-4C3A-4B46-8B48-24C4B25DC8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15820" xr2:uid="{78447F2B-5C25-7A44-81D6-C4E593BB4001}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t>dates</t>
   </si>
@@ -235,34 +235,48 @@
   <si>
     <t>http://www.example.com/page.jhtml;jsessionid=
 A93KF8M18M5XP&amp;type=content&amp;id=gpw9483</t>
+  </si>
+  <si>
+    <t>invalid email abc-@mail.com</t>
+  </si>
+  <si>
+    <t>invalid email   abc..def@mail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.abc@mail.com </t>
+  </si>
+  <si>
+    <t>abc#def@mail.com</t>
+  </si>
+  <si>
+    <t>abc-d@mail.com</t>
+  </si>
+  <si>
+    <t>abc.def@mail.com</t>
+  </si>
+  <si>
+    <t>abc@mail.com</t>
+  </si>
+  <si>
+    <t>abc.def@mail.cc</t>
+  </si>
+  <si>
+    <t>abc.def@mail</t>
+  </si>
+  <si>
+    <t>abc.def@mail..com</t>
+  </si>
+  <si>
+    <t>abc.def@mail.org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFA31515"/>
-      <name val="Courier New"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,10 +291,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA31515"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF007000"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,18 +353,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -633,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139FCC97-9AA1-454A-9F26-F7C6C53D1FBF}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -648,295 +701,390 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>39861</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>39861</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>12124567890</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="5">
         <v>39861</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="F8" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>12124567890</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="C9" s="2"/>
+      <c r="D9" s="5">
         <v>39861</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2">
+      <c r="C11" s="2"/>
+      <c r="D11" s="5">
         <v>39861</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2">
+      <c r="C12" s="2"/>
+      <c r="D12" s="5">
         <v>39861</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D14" s="4">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="8">
         <v>39861</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="4:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="D17" s="4">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="8">
         <v>39861</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="4:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="D19" s="3" t="s">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D21" t="s">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="4:5" ht="19" x14ac:dyDescent="0.25">
-      <c r="D22" s="5" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E24" s="6" t="s">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="4:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="E25" s="8" t="s">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="10" t="s">
         <v>66</v>
       </c>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -953,6 +1101,17 @@
     <hyperlink ref="E23" r:id="rId11" xr:uid="{09A5E3D2-D95F-804F-A014-AE0B6C38926D}"/>
     <hyperlink ref="E24" r:id="rId12" xr:uid="{D80B96E1-102A-944D-8D29-41EA1609C6E4}"/>
     <hyperlink ref="E25" r:id="rId13" xr:uid="{76B5034C-8325-6D47-80C8-EA7146041975}"/>
+    <hyperlink ref="F4" r:id="rId14" xr:uid="{FAC57514-ED1D-4448-B5EA-0AA0984616CC}"/>
+    <hyperlink ref="F5" r:id="rId15" xr:uid="{983D7504-E177-2445-8F17-C403DCBE8B8F}"/>
+    <hyperlink ref="F6" r:id="rId16" xr:uid="{12C2F921-87F8-934A-A8EA-4172475FCFA0}"/>
+    <hyperlink ref="F7" r:id="rId17" xr:uid="{8169731A-F20C-1347-ABC3-240D73A5529E}"/>
+    <hyperlink ref="F8" r:id="rId18" xr:uid="{E2A6B649-E167-6848-B598-7C21AEC09F0C}"/>
+    <hyperlink ref="F9" r:id="rId19" xr:uid="{8A4241FF-C432-8041-9485-69BAF91E427F}"/>
+    <hyperlink ref="F10" r:id="rId20" xr:uid="{D0513620-2426-3747-8234-8C81757E2252}"/>
+    <hyperlink ref="F11" r:id="rId21" xr:uid="{6E3C82A9-D961-504C-A82B-3D1914F00DEE}"/>
+    <hyperlink ref="F12" r:id="rId22" xr:uid="{49454EFE-C6BE-A243-9568-F7390E616F9E}"/>
+    <hyperlink ref="F13" r:id="rId23" xr:uid="{5AE5CE87-96D3-4147-9200-C84B8B019762}"/>
+    <hyperlink ref="F14" r:id="rId24" xr:uid="{27D20632-6093-2044-BDCA-EFBA42AA9F3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
